--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1788141.957338888</v>
+        <v>1782420.345371004</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>138.0049051084008</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>37.35930701763376</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.90187484148903</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,22 +861,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>50.13027643502292</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>121.1693910462</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>43.80431246487684</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>145.0955337074624</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.925119512544002</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>270.7773459850751</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>129.7051921386601</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492315</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>32.61943598429558</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>17.81518456748642</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>13.02719212039564</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>127.3165365479897</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>220.5970051191078</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>95.85441263759684</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>142.5584992616288</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>208.5297823800585</v>
       </c>
       <c r="W25" t="n">
-        <v>180.6755658143352</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>201.3600324842807</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>71.98153210089556</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>90.57445924393038</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>126.5660981224325</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>129.8723895268716</v>
+        <v>164.9102792253208</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>13.0271921203964</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>37.38100496017498</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>132.5235168489653</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3717,7 +3717,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>85.57983367267263</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>90.41948680756587</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>68.74868616823385</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1718.448825665084</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C2" t="n">
-        <v>1349.486308724672</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D2" t="n">
-        <v>1349.486308724672</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1349.486308724672</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>938.5004039350645</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>520.5365958332513</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>193.3418758692542</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2659.412417263037</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2405.650631901128</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>2074.587744557557</v>
       </c>
       <c r="W2" t="n">
-        <v>2478.514423990285</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="X2" t="n">
-        <v>2105.048665729205</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="Y2" t="n">
-        <v>2105.048665729205</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.535689181137</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>677.4923413427749</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>677.4923413427749</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>450.1841540113767</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146241</v>
+        <v>450.1841540113767</v>
       </c>
       <c r="V4" t="n">
-        <v>154.8539665087372</v>
+        <v>450.1841540113767</v>
       </c>
       <c r="W4" t="n">
-        <v>154.8539665087372</v>
+        <v>450.1841540113767</v>
       </c>
       <c r="X4" t="n">
-        <v>154.8539665087372</v>
+        <v>450.1841540113767</v>
       </c>
       <c r="Y4" t="n">
-        <v>154.8539665087372</v>
+        <v>450.1841540113767</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1485.946714969784</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="C5" t="n">
-        <v>1485.946714969784</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>1485.946714969784</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500978</v>
+        <v>2652.90231075067</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500978</v>
+        <v>2321.839423407099</v>
       </c>
       <c r="W5" t="n">
-        <v>1859.412473230863</v>
+        <v>1969.070768136985</v>
       </c>
       <c r="X5" t="n">
-        <v>1485.946714969784</v>
+        <v>1595.605009875905</v>
       </c>
       <c r="Y5" t="n">
-        <v>1485.946714969784</v>
+        <v>1205.465677900094</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>552.1509199010035</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="C7" t="n">
-        <v>552.1509199010035</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="D7" t="n">
-        <v>552.1509199010035</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>552.1509199010035</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>552.1509199010035</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>552.1509199010035</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>552.1509199010035</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W7" t="n">
-        <v>552.1509199010035</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X7" t="n">
-        <v>552.1509199010035</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="Y7" t="n">
-        <v>552.1509199010035</v>
+        <v>184.2708856551155</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2695.204525854037</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2695.204525854037</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2476.569858826099</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2476.569858826099</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2476.569858826099</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2476.569858826099</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2476.569858826099</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>2476.569858826099</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>471.4038777286581</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>471.4038777286581</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>321.2872383163224</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>321.2872383163224</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>321.2872383163224</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>471.4038777286581</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="11">
@@ -5026,10 +5026,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5041,28 +5041,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>416.3606924710451</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L11" t="n">
-        <v>1732.058578925877</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M11" t="n">
-        <v>2265.590483597801</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N11" t="n">
-        <v>2812.369300656583</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O11" t="n">
-        <v>3692.333950986038</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5111,7 +5111,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5120,28 +5120,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>741.6930623898346</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>572.7568794619277</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>422.640240049592</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>274.7271464671988</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258583</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384227</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V13" t="n">
-        <v>909.27315417834</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413794</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X13" t="n">
-        <v>391.8664332433621</v>
+        <v>962.4856415333647</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.0738540998319</v>
+        <v>741.6930623898346</v>
       </c>
     </row>
     <row r="14">
@@ -5257,46 +5257,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1586.925993846824</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518748</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.236715577531</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1023.336921276364</v>
+        <v>855.6340846510827</v>
       </c>
       <c r="C16" t="n">
-        <v>854.4007383484569</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D16" t="n">
-        <v>704.2840989361212</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E16" t="n">
-        <v>556.371005353728</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G16" t="n">
         <v>241.7782212305366</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1943.184686185112</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T16" t="n">
-        <v>1943.184686185112</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U16" t="n">
-        <v>1943.184686185112</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="V16" t="n">
-        <v>1943.184686185112</v>
+        <v>1611.828520656345</v>
       </c>
       <c r="W16" t="n">
-        <v>1653.767516148151</v>
+        <v>1322.411350619384</v>
       </c>
       <c r="X16" t="n">
-        <v>1425.777965250134</v>
+        <v>1094.421799721367</v>
       </c>
       <c r="Y16" t="n">
-        <v>1204.985386106604</v>
+        <v>873.6292205778367</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,28 +5500,28 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>818.2062848686787</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L17" t="n">
-        <v>1682.725100522033</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M17" t="n">
         <v>2216.257005193957</v>
@@ -5530,7 +5530,7 @@
         <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
         <v>4470.748294107237</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,28 +5594,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>391.8664332433621</v>
+        <v>559.3002584566048</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8664332433621</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D19" t="n">
-        <v>391.8664332433621</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384227</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V19" t="n">
-        <v>909.27315417834</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413794</v>
+        <v>1189.730853328392</v>
       </c>
       <c r="X19" t="n">
-        <v>391.8664332433621</v>
+        <v>961.7413024303746</v>
       </c>
       <c r="Y19" t="n">
-        <v>391.8664332433621</v>
+        <v>740.9487232868445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483405</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542187</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5822,22 +5822,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>754.9793597803096</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="C22" t="n">
-        <v>586.0431768524027</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="D22" t="n">
-        <v>435.9265374400669</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E22" t="n">
-        <v>435.9265374400669</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F22" t="n">
-        <v>435.9265374400669</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1674.827124689057</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U22" t="n">
-        <v>1674.827124689057</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V22" t="n">
-        <v>1674.827124689057</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W22" t="n">
-        <v>1385.409954652097</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X22" t="n">
-        <v>1157.420403754079</v>
+        <v>757.3738414543702</v>
       </c>
       <c r="Y22" t="n">
-        <v>936.6278246105493</v>
+        <v>536.5812623108401</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,16 +5974,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5992,49 +5992,49 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>750.1800661608916</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1614.698881814246</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2593.249184644075</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3573.001456870722</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.7264155301116</v>
+        <v>825.859557377715</v>
       </c>
       <c r="C25" t="n">
-        <v>951.7264155301116</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="D25" t="n">
-        <v>801.6097761177758</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F25" t="n">
         <v>506.8067350374723</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V25" t="n">
-        <v>1764.65758193153</v>
+        <v>1745.707322286463</v>
       </c>
       <c r="W25" t="n">
-        <v>1582.157010401899</v>
+        <v>1456.290152249502</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.167459503881</v>
+        <v>1228.300601351485</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.374880360351</v>
+        <v>1007.508022207955</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
@@ -6223,34 +6223,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
         <v>4667.761053946815</v>
@@ -6262,16 +6262,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3400.125497098742</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C28" t="n">
-        <v>3231.189314170835</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D28" t="n">
-        <v>3231.189314170835</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E28" t="n">
-        <v>3231.189314170835</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>3231.189314170835</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>3063.486477545554</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>4574.657750213377</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V28" t="n">
-        <v>4319.97326200749</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W28" t="n">
-        <v>4030.556091970529</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X28" t="n">
-        <v>3802.566541072512</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y28" t="n">
-        <v>3581.773961928982</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>876.6177432290281</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1741.136558882383</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M29" t="n">
-        <v>2274.668463554307</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N29" t="n">
-        <v>3254.420735780954</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.393206660291</v>
+        <v>3819.938960973982</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6548,7 +6548,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>432.2000540015823</v>
+        <v>333.9403347179516</v>
       </c>
       <c r="C31" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1606.732307116217</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1352.04781891033</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W31" t="n">
-        <v>1062.630648873369</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X31" t="n">
-        <v>834.6410979753522</v>
+        <v>736.3813786917215</v>
       </c>
       <c r="Y31" t="n">
-        <v>613.848518831822</v>
+        <v>515.5887995481913</v>
       </c>
     </row>
     <row r="32">
@@ -6691,46 +6691,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1472.533259768727</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2006.065164440651</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6785,7 +6785,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6797,22 +6797,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>582.3166934139181</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C34" t="n">
-        <v>413.3805104860112</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D34" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E34" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1825.159234259379</v>
+        <v>1789.767426483168</v>
       </c>
       <c r="T34" t="n">
-        <v>1825.159234259379</v>
+        <v>1568.000811052694</v>
       </c>
       <c r="U34" t="n">
-        <v>1536.056367385023</v>
+        <v>1278.897944178337</v>
       </c>
       <c r="V34" t="n">
-        <v>1281.371879179136</v>
+        <v>1024.21345597245</v>
       </c>
       <c r="W34" t="n">
-        <v>991.9547091421751</v>
+        <v>734.7962859354897</v>
       </c>
       <c r="X34" t="n">
-        <v>763.9651582441578</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="Y34" t="n">
-        <v>763.9651582441578</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="35">
@@ -6916,67 +6916,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>932.5990189467736</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1797.117834600128</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2330.649739272053</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1036.495701195956</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C37" t="n">
-        <v>867.5595182680493</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D37" t="n">
-        <v>717.4428788557135</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E37" t="n">
-        <v>569.5297852733204</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F37" t="n">
-        <v>422.63983777541</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>254.937001150129</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>108.7198143679867</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1918.58487523584</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104704</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U37" t="n">
-        <v>1956.343466104704</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V37" t="n">
-        <v>1956.343466104704</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W37" t="n">
-        <v>1666.926296067743</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X37" t="n">
-        <v>1438.936745169726</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y37" t="n">
-        <v>1218.144166026196</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="38">
@@ -7153,73 +7153,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>416.3606924710451</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>750.1800661608916</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1614.698881814246</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2593.249184644075</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>3573.001456870722</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3441.564240456397</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>3441.564240456397</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>3441.564240456397</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>3441.564240456397</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>3294.674292958487</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>4496.535381004075</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>4274.768765573601</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>3985.665898699244</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>3730.981410493358</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>3441.564240456397</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>3441.564240456397</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>3441.564240456397</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7390,49 +7390,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7450,7 +7450,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>973.7726509601081</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>804.8364680322012</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7572,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.657581931529</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.890966501056</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1288.206478295169</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>1201.762201858126</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>973.7726509601081</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>973.7726509601081</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>818.2062848686752</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L44" t="n">
-        <v>1682.72510052203</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M44" t="n">
-        <v>2216.257005193955</v>
+        <v>2317.998088216515</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420601</v>
+        <v>3297.750360443162</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750057</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107235</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862917</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>481.6968904858352</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C46" t="n">
-        <v>481.6968904858352</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.657581931531</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.7880996267</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208131</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W46" t="n">
-        <v>709.6864413838525</v>
+        <v>894.9278122480885</v>
       </c>
       <c r="X46" t="n">
-        <v>481.6968904858352</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="Y46" t="n">
-        <v>481.6968904858352</v>
+        <v>446.145682206541</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142008</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2173930448442</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>29.61882225792226</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>246.454569480845</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>32.86979469803993</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476844</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9877,22 +9877,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>315.167921710931</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>260.9678829613756</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>407.312633760658</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>317.5146261106135</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476853</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>201.9664098701097</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>103.7862464855133</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270141</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>112.8016120386357</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>162.0167956144509</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>176.7418332110463</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -23712,7 +23712,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>19.11742609857943</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>65.92599321748315</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>70.17139562143139</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>83.1511561274084</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -24423,10 +24423,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>43.60786094376948</v>
       </c>
       <c r="W25" t="n">
-        <v>105.8474325222558</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24657,13 +24657,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>84.85180572133214</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>214.5414662356955</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>76.67236185469746</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24888,16 +24888,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>159.6457400831803</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>59.89663580457034</v>
+        <v>24.85874610612106</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>83.3252282894417</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>51.55114770987235</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>33.50229141006292</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>200.9431646639184</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>58.19598621064648</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>183.3889571555941</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>894406.625218775</v>
+        <v>894406.6252187749</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>894406.6252187749</v>
+        <v>894406.625218775</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>894406.625218775</v>
+        <v>894406.6252187749</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>894406.6252187751</v>
+        <v>894406.6252187749</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.150411785</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
+        <v>516206.3229530782</v>
+      </c>
+      <c r="F2" t="n">
         <v>516206.322953078</v>
       </c>
-      <c r="F2" t="n">
-        <v>516206.3229530781</v>
-      </c>
       <c r="G2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="H2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.3229530782</v>
       </c>
       <c r="I2" t="n">
         <v>516206.3229530783</v>
       </c>
       <c r="J2" t="n">
+        <v>516206.322953078</v>
+      </c>
+      <c r="K2" t="n">
+        <v>516206.3229530781</v>
+      </c>
+      <c r="L2" t="n">
         <v>516206.3229530783</v>
-      </c>
-      <c r="K2" t="n">
-        <v>516206.3229530784</v>
-      </c>
-      <c r="L2" t="n">
-        <v>516206.3229530781</v>
       </c>
       <c r="M2" t="n">
         <v>516206.3229530781</v>
       </c>
       <c r="N2" t="n">
-        <v>516206.3229530784</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="O2" t="n">
         <v>516206.3229530781</v>
       </c>
       <c r="P2" t="n">
-        <v>516206.3229530782</v>
+        <v>516206.3229530781</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26426,40 +26426,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="O4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="O4" t="n">
-        <v>21619.60799709189</v>
-      </c>
       <c r="P4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
-      <c r="D5" t="n">
-        <v>82859.07806340946</v>
-      </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="K5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="N5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="O5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="L5" t="n">
+      <c r="P5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="M5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="N5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="O5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="P5" t="n">
-        <v>96383.51825371367</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-331356.4032585996</v>
+        <v>-331356.4032585995</v>
       </c>
       <c r="C6" t="n">
-        <v>258611.4759559451</v>
+        <v>258611.4759559458</v>
       </c>
       <c r="D6" t="n">
-        <v>258611.4759559452</v>
+        <v>258611.4759559453</v>
       </c>
       <c r="E6" t="n">
-        <v>-329174.2172911341</v>
+        <v>-329846.1721933918</v>
       </c>
       <c r="F6" t="n">
-        <v>398203.1967022726</v>
+        <v>397531.2418000145</v>
       </c>
       <c r="G6" t="n">
-        <v>398203.1967022725</v>
+        <v>397531.2418000148</v>
       </c>
       <c r="H6" t="n">
-        <v>398203.1967022727</v>
+        <v>397531.2418000147</v>
       </c>
       <c r="I6" t="n">
-        <v>398203.1967022725</v>
+        <v>397531.2418000149</v>
       </c>
       <c r="J6" t="n">
-        <v>221779.9775096798</v>
+        <v>221108.0226074217</v>
       </c>
       <c r="K6" t="n">
-        <v>398203.1967022728</v>
+        <v>397531.2418000147</v>
       </c>
       <c r="L6" t="n">
-        <v>398203.1967022726</v>
+        <v>397531.2418000147</v>
       </c>
       <c r="M6" t="n">
-        <v>268560.8818633278</v>
+        <v>267888.9269610699</v>
       </c>
       <c r="N6" t="n">
-        <v>398203.1967022728</v>
+        <v>397531.2418000147</v>
       </c>
       <c r="O6" t="n">
-        <v>398203.1967022727</v>
+        <v>397531.2418000146</v>
       </c>
       <c r="P6" t="n">
-        <v>398203.1967022724</v>
+        <v>397531.2418000147</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>13.92641113646042</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>179.089013340024</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79.93010534044826</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>96.53491554513491</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>260.7609790260617</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>207.4198550434124</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>19.59084822180881</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>67.05000524255655</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>52.5532830622677</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>98.95375469339393</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>37.60461012039082</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8578157762261</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32797,7 +32797,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.389756104752</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>324.040058608738</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>631.8075074371761</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>485.2089366502542</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>798.7564048937564</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>370.0610812534403</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>404.727924322443</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359034</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>470.444344195426</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
@@ -36372,7 +36372,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36445,7 +36445,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
@@ -36597,22 +36597,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>713.9299079303029</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36834,7 +36834,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>598.159169516776</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
@@ -36849,7 +36849,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>657.383164781064</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>862.9027481529902</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>654.705912666014</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37320,16 +37320,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>324.040058608738</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37557,7 +37557,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359043</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>539.1576964255103</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427827</v>
+        <v>559.3763608778455</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509647</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859626</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1782420.345371004</v>
+        <v>1785825.836495453</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.58283624</v>
       </c>
     </row>
     <row r="8">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>237.4640910185898</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>37.35930701763376</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>50.13027643502292</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>80.42795207481444</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>43.80431246487684</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>129.0246247964035</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>26.32882004050054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>27.79449808813144</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850751</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>47.1416784925591</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>20.37101417820728</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>32.61943598429558</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17.81518456748642</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>85.9084800196314</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>148.3685098718289</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>220.5970051191078</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>158.8193662474792</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>142.5584992616288</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>66.76073360401644</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>208.5297823800585</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.921725653453</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>71.98153210089556</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>133.4004220955983</v>
       </c>
     </row>
     <row r="29">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>90.57445924393038</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>164.9102792253208</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>111.9811935083357</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>37.38100496017498</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3717,13 +3717,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>270.3808622796279</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>270.3808622796248</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247882</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>68.74868616823385</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>216.2486892180382</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1721.819089287443</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.819089287443</v>
+        <v>1602.311532020473</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1244.045833413722</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>858.2575808154781</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>447.2716760258706</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2659.412417263037</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2405.650631901128</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2074.587744557557</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>1721.819089287443</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X2" t="n">
-        <v>1721.819089287443</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1721.819089287443</v>
+        <v>1971.274048960885</v>
       </c>
     </row>
     <row r="3">
@@ -4400,22 +4400,22 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.535689181137</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>677.4923413427749</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>677.4923413427749</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>450.1841540113767</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>450.1841540113767</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>450.1841540113767</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>450.1841540113767</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X4" t="n">
-        <v>450.1841540113767</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>450.1841540113767</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>818.8658378359718</v>
+        <v>1099.346874905661</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>1099.346874905661</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>1099.346874905661</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>713.5586223074172</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>302.5727175178096</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>288.6493134564005</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2652.90231075067</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2321.839423407099</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1969.070768136985</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>1595.605009875905</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y5" t="n">
-        <v>1205.465677900094</v>
+        <v>1485.946714969783</v>
       </c>
     </row>
     <row r="6">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.2708856551155</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C7" t="n">
-        <v>184.2708856551155</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="V7" t="n">
-        <v>184.2708856551155</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="W7" t="n">
-        <v>184.2708856551155</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="X7" t="n">
-        <v>184.2708856551155</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.2708856551155</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1606.020605349451</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1237.058088409039</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>878.7923898022884</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>493.0041372040442</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>82.01823241443662</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036446</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1992.620445413572</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>396.3638799638589</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>248.4507863814658</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>101.5608388835555</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036446</v>
@@ -5007,7 +5007,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5038,55 +5038,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>416.3606924710451</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>750.1800661608916</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1614.698881814246</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M11" t="n">
-        <v>2593.249184644075</v>
+        <v>1687.484443350883</v>
       </c>
       <c r="N11" t="n">
-        <v>3573.001456870722</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
@@ -5126,7 +5126,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.6930623898346</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="C13" t="n">
-        <v>572.7568794619277</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D13" t="n">
-        <v>422.640240049592</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E13" t="n">
-        <v>274.7271464671988</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F13" t="n">
         <v>241.7782212305366</v>
@@ -5193,10 +5193,10 @@
         <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5232,19 +5232,19 @@
         <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.57685067423</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>1479.892362468343</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W13" t="n">
-        <v>1190.475192431382</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X13" t="n">
-        <v>962.4856415333647</v>
+        <v>928.0672628648952</v>
       </c>
       <c r="Y13" t="n">
-        <v>741.6930623898346</v>
+        <v>707.274683721365</v>
       </c>
     </row>
     <row r="14">
@@ -5257,67 +5257,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M14" t="n">
-        <v>2782.232616025903</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N14" t="n">
-        <v>3573.001456870722</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5363,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5390,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>855.6340846510827</v>
+        <v>623.3575047549123</v>
       </c>
       <c r="C16" t="n">
-        <v>686.6979017231758</v>
+        <v>623.3575047549123</v>
       </c>
       <c r="D16" t="n">
-        <v>536.5812623108401</v>
+        <v>623.3575047549123</v>
       </c>
       <c r="E16" t="n">
-        <v>388.668168728447</v>
+        <v>475.4444111725192</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>328.5544636746088</v>
       </c>
       <c r="G16" t="n">
         <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1866.513008862232</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1611.828520656345</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W16" t="n">
-        <v>1322.411350619384</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="X16" t="n">
-        <v>1094.421799721367</v>
+        <v>1025.798548728682</v>
       </c>
       <c r="Y16" t="n">
-        <v>873.6292205778367</v>
+        <v>805.005969585152</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,7 +5500,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
@@ -5512,55 +5512,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>818.2062848686776</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1682.725100522032</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5600,7 +5600,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5612,22 +5612,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>559.3002584566048</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C19" t="n">
-        <v>390.3640755286979</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D19" t="n">
-        <v>390.3640755286979</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1524.959943000342</v>
       </c>
       <c r="U19" t="n">
-        <v>1667.240599230347</v>
+        <v>1524.959943000342</v>
       </c>
       <c r="V19" t="n">
-        <v>1412.556111024461</v>
+        <v>1270.275454794455</v>
       </c>
       <c r="W19" t="n">
-        <v>1189.730853328392</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="X19" t="n">
-        <v>961.7413024303746</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y19" t="n">
-        <v>740.9487232868445</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>685.1208104866384</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1549.639626139993</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M20" t="n">
-        <v>2528.189928969822</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N20" t="n">
-        <v>3507.942201196468</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,34 +5807,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089883</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468559</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
         <v>794.2006632320242</v>
@@ -5849,34 +5849,34 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>536.5812623108401</v>
+        <v>719.7238607267858</v>
       </c>
       <c r="C22" t="n">
-        <v>536.5812623108401</v>
+        <v>550.7876777988789</v>
       </c>
       <c r="D22" t="n">
-        <v>536.5812623108401</v>
+        <v>550.7876777988789</v>
       </c>
       <c r="E22" t="n">
-        <v>388.668168728447</v>
+        <v>402.8745842164858</v>
       </c>
       <c r="F22" t="n">
-        <v>241.7782212305366</v>
+        <v>255.9846367185754</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5952,10 +5952,10 @@
         <v>901.3723255570255</v>
       </c>
       <c r="X22" t="n">
-        <v>757.3738414543702</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y22" t="n">
-        <v>536.5812623108401</v>
+        <v>901.3723255570255</v>
       </c>
     </row>
     <row r="23">
@@ -5986,7 +5986,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>825.859557377715</v>
+        <v>499.6351384500838</v>
       </c>
       <c r="C25" t="n">
-        <v>656.9233744498081</v>
+        <v>330.6989555221769</v>
       </c>
       <c r="D25" t="n">
-        <v>506.8067350374723</v>
+        <v>330.6989555221769</v>
       </c>
       <c r="E25" t="n">
-        <v>506.8067350374723</v>
+        <v>330.6989555221769</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>330.6989555221769</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>162.9961188968959</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.343466104704</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1745.707322286463</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>1456.290152249502</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X25" t="n">
-        <v>1228.300601351485</v>
+        <v>681.2836032803235</v>
       </c>
       <c r="Y25" t="n">
-        <v>1007.508022207955</v>
+        <v>681.2836032803235</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
@@ -6223,55 +6223,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2883.993034926781</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3763.957685256236</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089883</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468559</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L27" t="n">
         <v>794.2006632320242</v>
@@ -6323,31 +6323,31 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U27" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y27" t="n">
         <v>1138.808109517387</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>709.4168978689405</v>
+        <v>806.7425750505952</v>
       </c>
       <c r="C28" t="n">
-        <v>540.4807149410336</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="D28" t="n">
-        <v>390.3640755286979</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6423,13 +6423,13 @@
         <v>1412.556111024461</v>
       </c>
       <c r="W28" t="n">
-        <v>1339.847492740728</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X28" t="n">
-        <v>1111.85794184271</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="Y28" t="n">
-        <v>891.0653626991802</v>
+        <v>988.3910398808349</v>
       </c>
     </row>
     <row r="29">
@@ -6451,43 +6451,43 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3316.966490094645</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3819.938960973982</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,22 +6572,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>333.9403347179516</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6654,19 +6654,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1253.788099626699</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>964.3709295897388</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>736.3813786917215</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>515.5887995481913</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6703,25 +6703,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1472.533259768727</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2006.065164440651</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
-        <v>2985.817436667298</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6779,10 +6779,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320242</v>
@@ -6797,22 +6797,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>506.8067350374723</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="C34" t="n">
-        <v>506.8067350374723</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="D34" t="n">
-        <v>506.8067350374723</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E34" t="n">
-        <v>506.8067350374723</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1789.767426483168</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1568.000811052694</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U34" t="n">
-        <v>1278.897944178337</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V34" t="n">
-        <v>1024.21345597245</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W34" t="n">
-        <v>734.7962859354897</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X34" t="n">
-        <v>506.8067350374723</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y34" t="n">
-        <v>506.8067350374723</v>
+        <v>560.2704579839216</v>
       </c>
     </row>
     <row r="35">
@@ -6934,34 +6934,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>932.5990189467736</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1797.117834600128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2330.649739272053</v>
+        <v>2274.668463554307</v>
       </c>
       <c r="N35" t="n">
-        <v>2877.428556330835</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O35" t="n">
-        <v>3757.39320666029</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
         <v>4667.761053946815</v>
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7022,28 +7022,28 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>263.2638710736754</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C37" t="n">
-        <v>263.2638710736754</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D37" t="n">
-        <v>263.2638710736754</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E37" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1918.58487523584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1726.898991062666</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1726.898991062666</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="U37" t="n">
-        <v>1437.79612418831</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="V37" t="n">
-        <v>1183.111635982423</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W37" t="n">
-        <v>893.6944659454626</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X37" t="n">
-        <v>665.7049150474453</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y37" t="n">
-        <v>444.9123359039152</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888615</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7268,7 +7268,7 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
         <v>2436.460902902953</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7308,67 +7308,67 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O40" t="n">
         <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952192</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931533</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1542.890966501059</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626703</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208158</v>
       </c>
       <c r="W40" t="n">
         <v>725.9916293201816</v>
@@ -7411,28 +7411,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468568</v>
@@ -7490,19 +7490,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,22 +7520,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7596,16 +7596,16 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
         <v>725.9916293201816</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089262</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074201</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972667</v>
       </c>
       <c r="L44" t="n">
-        <v>1339.447785386687</v>
+        <v>1482.778354750622</v>
       </c>
       <c r="M44" t="n">
-        <v>2317.998088216515</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>3297.750360443162</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O44" t="n">
-        <v>3800.722831322499</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.592772497321</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216194</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549427</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494872</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763722</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089903</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468579</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,31 +7748,31 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549554</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142069</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635549</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487876</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282343</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517389</v>
       </c>
     </row>
     <row r="46">
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>264.4972173763013</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T46" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V46" t="n">
-        <v>1184.344982285049</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W46" t="n">
-        <v>894.9278122480885</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="X46" t="n">
-        <v>666.9382613500711</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="Y46" t="n">
-        <v>446.145682206541</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>85.51392558917507</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>246.454569480845</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>201.9664098701124</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,22 +9400,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>67.53663776704252</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>146.0713065388572</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9877,22 +9877,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
-        <v>315.167921710931</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10114,22 +10114,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
-        <v>258.6211785616921</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>407.312633760658</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,19 +10588,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>317.5146261106135</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>260.9678829613757</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>132.9990175570117</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>103.7862464855133</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11311,16 +11311,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>133.2530576400234</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>-5.902123712395936e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>159.46096600373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>112.8016120386357</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>162.0167956144509</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>80.11732823939683</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>71.18043940434029</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>65.92599321748315</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>7.206442011549001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>83.1511561274084</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>77.99428131030434</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>43.60786094376948</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>214.5414662356955</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>85.18423125649653</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>76.67236185469746</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>24.85874610612106</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>106.603459843759</v>
       </c>
     </row>
     <row r="35">
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>51.55114770987235</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>147.8785773062519</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>16.14213605696312</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>183.3889571555941</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>2.335964134056638</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>894406.6252187749</v>
+        <v>894406.625218775</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>894406.625218775</v>
+        <v>894406.6252187749</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>894406.6252187749</v>
+        <v>894406.625218775</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>894406.6252187749</v>
+        <v>894406.625218775</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.150411785</v>
+        <v>533677.1504117848</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117849</v>
       </c>
       <c r="E2" t="n">
-        <v>516206.3229530782</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="F2" t="n">
-        <v>516206.322953078</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="G2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="H2" t="n">
         <v>516206.3229530782</v>
       </c>
       <c r="I2" t="n">
+        <v>516206.3229530782</v>
+      </c>
+      <c r="J2" t="n">
         <v>516206.3229530783</v>
       </c>
-      <c r="J2" t="n">
-        <v>516206.322953078</v>
-      </c>
       <c r="K2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="L2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.3229530784</v>
       </c>
       <c r="M2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530782</v>
       </c>
       <c r="N2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530782</v>
       </c>
       <c r="O2" t="n">
         <v>516206.3229530781</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,13 +26401,13 @@
         <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.026689228136092e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26426,13 +26426,13 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="H4" t="n">
         <v>21619.60799709187</v>
@@ -26441,25 +26441,25 @@
         <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="L4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="N4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709184</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="F5" t="n">
+      <c r="K5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="G5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-331356.4032585995</v>
+        <v>-331356.4032585993</v>
       </c>
       <c r="C6" t="n">
-        <v>258611.4759559458</v>
+        <v>258611.4759559456</v>
       </c>
       <c r="D6" t="n">
-        <v>258611.4759559453</v>
+        <v>258611.4759559457</v>
       </c>
       <c r="E6" t="n">
-        <v>-329846.1721933918</v>
+        <v>-329241.4127813598</v>
       </c>
       <c r="F6" t="n">
-        <v>397531.2418000145</v>
+        <v>398136.0012120468</v>
       </c>
       <c r="G6" t="n">
-        <v>397531.2418000148</v>
+        <v>398136.0012120468</v>
       </c>
       <c r="H6" t="n">
-        <v>397531.2418000147</v>
+        <v>398136.0012120469</v>
       </c>
       <c r="I6" t="n">
-        <v>397531.2418000149</v>
+        <v>398136.0012120469</v>
       </c>
       <c r="J6" t="n">
-        <v>221108.0226074217</v>
+        <v>221712.7820194539</v>
       </c>
       <c r="K6" t="n">
-        <v>397531.2418000147</v>
+        <v>398136.0012120469</v>
       </c>
       <c r="L6" t="n">
-        <v>397531.2418000147</v>
+        <v>398136.001212047</v>
       </c>
       <c r="M6" t="n">
-        <v>267888.9269610699</v>
+        <v>268493.6863731021</v>
       </c>
       <c r="N6" t="n">
-        <v>397531.2418000147</v>
+        <v>398136.0012120467</v>
       </c>
       <c r="O6" t="n">
-        <v>397531.2418000146</v>
+        <v>398136.0012120469</v>
       </c>
       <c r="P6" t="n">
-        <v>397531.2418000147</v>
+        <v>398136.0012120465</v>
       </c>
     </row>
   </sheetData>
@@ -26773,13 +26773,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26995,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>176.3200790022052</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>179.089013340024</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>96.53491554513491</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724685</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>243.4948206895427</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>207.4198550434124</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>19.59084822180881</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>2.793929914413759</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>385.9896719326636</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339393</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>120.1681237664918</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>158.8578157762261</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30422,7 +30422,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.733694752047692e-12</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -32086,7 +32086,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837925</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32797,7 +32797,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P45" t="n">
         <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>324.040058608738</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>624.4350414194018</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>485.2089366502526</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>798.7564048937564</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35734,7 +35734,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004592</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>539.1576964255129</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>404.727924322443</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>698.3731419517687</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
@@ -36597,22 +36597,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>713.9299079303029</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36834,22 +36834,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>657.383164781064</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -37071,28 +37071,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>862.9027481529902</v>
+        <v>588.5891319493445</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>654.705912666014</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>799.8889987916025</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>323.7860185257243</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451132</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L44" t="n">
-        <v>559.3763608778455</v>
+        <v>873.2513289427828</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230595</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248959</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282428</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
